--- a/Chaldal_scraper/scrapped_data/Chaldaal_rawdata_v1.3.xlsx
+++ b/Chaldal_scraper/scrapped_data/Chaldaal_rawdata_v1.3.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="menu_urls" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="submenu_urls" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="item_info" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -628,4 +630,3805 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B72"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>menu</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Fruits &amp; Vegetables</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/fruits-vegetables</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Meat &amp; Fish</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/meat-fish</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Cooking</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/cooking</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Sauces &amp; Pickles</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/sauces-pickles</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Dairy &amp; Eggs</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/dairy</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Breakfast</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/breakfast</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Candy &amp; Chocolate</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/candy-chocolate</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Snacks</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/snacks</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Beverages</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/beverages</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Baking</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/baking-needs</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Frozen &amp; Canned</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/frozen-foods</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Diabetic Food</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/diabetic-food</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Dishwashing Supplies</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/dish-wash</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Laundry</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/laundry</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Toilet Cleaners</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/toilet-cleaning</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Napkins &amp; Paper Products</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/paper-products</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Pest Control</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/pest-control</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Floor &amp; Glass Cleaners</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/floor-glass-cleaners</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Cleaning Accessories</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/cleaning-accessories</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Air Fresheners</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/air-freshners</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Disposables &amp; Trash Bags</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/trash-bags</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Shoe Care</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/shoe-care</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Trash Bin &amp; Basket</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/trash-bin-basket</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Women's Care</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/female-care</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Men's Care</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/male-care</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Handwash</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/handwash</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Tissue &amp; Wipes</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/tissue-wipes</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Oral Care</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/oral-care-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Skin Care</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/skin-care-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Talcom Powder</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/talcom-powder</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Hair Color</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/hair-color</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Keto Food</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/keto-food</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Antiseptics</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/antiseptics</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Handwash &amp; Handrub</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/handwash-handrub</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Herbal &amp; Digestive Aids</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/herbal-products</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Food Supplements</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/food-supplements</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Face Masks &amp; Safety</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/face-masks-safety</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Family Planning</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/family-planning</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Mouthwashes, Inhaler &amp; Balm</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/mouthwashes</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Adult Diapers</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/adult-diapers</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Medical Devices</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/medical-devices</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Diapers</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/diapers</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Baby Food</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/fooding</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Baby Skincare</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/bath-skincare</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Wipes</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/wipes</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Baby Oral Care</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/baby-oral-care</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Newborn Essentials</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/newborn-essentials</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Baby Accessories</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/baby-accessories</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Feeders</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/feeders</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Kitchen Accessories</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/kitchen-accessories</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Kitchen Appliances</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/kitchen-appliances</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Lights &amp; Electrical</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/lights-electrical</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Tools &amp; Hardware</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/tools-hardware</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Basket &amp; Bucket</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/baskets-buckets</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Box &amp; Container</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/box-container</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Gardening</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/gardening</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Rack &amp; Organizer</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/rack-organizer</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Disposables</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/disposables</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Office Electronics</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/office-electronics</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Organizers</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/organizers</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Writing &amp; Printing</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/writing</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Paper Supplies</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/paper-supplies</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>School Supplies</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/school-supplies</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Arts &amp; Crafts</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/arts-crafts</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Cat Food</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/cat-food</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Cat Litters</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/cat-litters</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Kitten Food</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/kitten-food</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Dog Food</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/dog-food</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Grooming &amp; Cleaning</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/pet-grooming-cleaning</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Bird &amp; Other Pet Food</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/bird-food</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Aquarium Fish Food</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/aquarium-fish-food</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E108"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>item</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>quantity</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>price</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Deshi Peyaj (Local Onion) ± 50 gm</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1 kg</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>৳ 79</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>30-35 pcs  Though all vegetables are important for health, certain kinds offer unique benefits.  Onions are members of the Allium genus of flowering plants that also includes garlic, shallots, leeks and chives.  These vegetables contain various vitamins, minerals and potent plant compounds that have been shown to promote health in many ways.  In fact, the medicinal properties of onions have been recognized since ancient times, when they were used to treat ailments like headaches, heart disease and mouth sores.  Nutritional facts/Ingredients : Benefits: -Packed With Nutrients -May Benefit Heart Health -Loaded With Antioxidants -Contain Cancer-Fighting Compounds -Help Control Blood Sugar -May Boost Bone Density -Have Antibacterial Properties -May Boost Digestive Health -Easy to Add to Your Diet.</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Summer Collection</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Potato Regular (± 50 gm)</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1 kg</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>৳ 59</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">18 -22 pcs  Buy regular potato from us which provides you with dietary fiber, potassium, vitamins, etc. Regular potato provides 9-10 percent of your daily need. Regular potatoes offer more of this nutrient which helps control your blood pressure. Make a good curry with regular potato. You can make French fries and you can enjoy with your family members. </t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Summer Collection</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Chaldal Basic Dishwashing Bar</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>100 gm</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>৳ 12</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chaldal Basic Dishwashing Bar with the power of 100 lemons helps to clean tough grease the fastest. It gives you a pleasant cleaning experience with its refreshing lemon fragrance. It removes stains easily. It is tough on stains, gentle on your hands. Just take a little bit of Chaldal Basic Dishwashing Bar on your scrubber and clean your cooking vessels. So go ahead and enjoy the Chaldal Basic Dishwashing Bar experience. </t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Flash Sales</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Chaldal Basic Liquid Dishwash</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>500 ml</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>৳ 99</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Chaldal Basic Liquid Dishwash, with double lemon power it cleans 2x number of dishes Vs Bars, gives you complete cleaning without leaving any residue, unlike Dishwash Bars. It is also great value for money with one spoon of Chaldal Basic Liquid Dishwash being enough to clean a full sink of dirty utensils. Its superior fragrance leaves your utensils smelling fresh, while its pH neutral formula is gentle on your hands. It also keeps your expensive utensils like non-stick cookware looking new for longer as it cleans without scratching the surface and is recommended for non-stick cookware. For cooking vessels, add a drop of Chaldal Basic Liquid Dishwash directly on the scrubber and wash to get rid of tough stains. For other utensils, tiffins and dishes, take a spoonful of Chaldal Basic Liquid Dishwash, mix it in a bowl of water use the mixture to wash.</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Flash Sales</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Chicken Eggs (Layer)</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>12 pcs</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>৳ 149</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Weight without Box: 750 gm ±50 gm Weight with Box: 830 gm ±50 gm  Eggs are an all-natural source of high-quality protein and a number of other nutrients, all for 70 calories an egg. 100% fresh and healthy.</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Popular</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Deshi Peyaj (Local Onion) ± 50 gm</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1 kg</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>৳ 79</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>30-35 pcs  Though all vegetables are important for health, certain kinds offer unique benefits.  Onions are members of the Allium genus of flowering plants that also includes garlic, shallots, leeks and chives.  These vegetables contain various vitamins, minerals and potent plant compounds that have been shown to promote health in many ways.  In fact, the medicinal properties of onions have been recognized since ancient times, when they were used to treat ailments like headaches, heart disease and mouth sores.  Nutritional facts/Ingredients : Benefits: -Packed With Nutrients -May Benefit Heart Health -Loaded With Antioxidants -Contain Cancer-Fighting Compounds -Help Control Blood Sugar -May Boost Bone Density -Have Antibacterial Properties -May Boost Digestive Health -Easy to Add to Your Diet.</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Popular</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Brazil Flag (60 x 34 inch)</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>৳ 85</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Toys &amp; Sports</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Panlos Brick City Fire Brigade 12 In 1 Lego Building Blocks Toy</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>572 pcs</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>৳ 1,899</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  Model Theme: Original Fire Brigade Lego 12 in 1   Lego Quantity: 562 pieces   For children 6 years of age or older   A total of 12 fire brigade vehicles can be built   Made with High Quality Materials   Everything in the box: Building blocks, brick separator, instructions   Color: Multicolor   Lego size: As shown in the picture   Box size: 15 x 10 x 3 inches / 38.1 x 25.4 x 7.62 cm  (572 pieces)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Toys &amp; Sports</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Meril Nail Polish Remover</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>40 ml</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>৳ 40</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Gentle to your nail &amp; easily removes your nail polish with nourishing formula.</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Beauty &amp; MakeUp</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Rajkonna Rose Petal Powder</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>50 gm</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>৳ 150</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">100% Natural &amp; Organic </t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Beauty &amp; MakeUp</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fabric Lagbe Cotton Lungi (Sl-03)</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>৳ 890</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5. 5 hand lungi. 100 cotton. ripe color to sew</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Fashion &amp; Lifestyle</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Fabric Lagbe Cotton Saree (JSH-03)</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>৳ 535</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12 hands long 100% cotton saree. Cotton saree completely handmade with black and red color yarn. A saree made to perfection by the weavers of Tangail. Solid colors and attractive designs</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Fashion &amp; Lifestyle</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Alex Microfiber Car &amp; Home Duster</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>৳ 170</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Origin: Bangladesh  Used for All-purpose Dusting and wiping. 240 GSM Cloth which has 5X absorbing capacity and it removes bacteria from smooth surfaces. It also environment friendly, Washable and reusable.</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Vehicle Essentials</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Alex Car Wash</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>500 ml</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>৳ 330</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Origin : Bangladesh</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Vehicle Essentials</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Bashundhara Brown Flour (Lal Atta)</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>1 kg</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>৳ 75</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Origin: Bangladesh Bashundhara Brown Flour, also known as Lal Atta, is a type of whole wheat flour that is commonly used in South Asian cuisine. It is made from grinding whole wheat grains, including the bran, germ, and endosperm, which gives it a brown color and a slightly coarser texture compared to refined wheat flour.</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Diabetic Food</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Kellogg's Oats Cereal</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>400 gm</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>৳ 340</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Origin: India Oats is a wonder grain that has more soluble fibre than some grains like Wheat and Rice. Soluble fibre from oats helps reduce cholesterol. Kellogg's Oats can be consumer directly with skimmed milk or cooked with milk or water and enjoyed hot in a recipe of your choice. This is a Vegetarian product. • Take care of your heart's health, start your day the healthy way with goodness of oats • Start off your day with a balanced, great-tasting breakfast that can put you on the fast track to good nutrition and better overall health • Kellogg's fortified oats offer a low-fat, nutrient-dense, cholesterol-free food that encourages breakfast consumption • A quick and convenient breakfast in just 3 minutes • No added preservatives • You can count on Kellogg for great-tasting, convenient, and affordable choices that meet their nutrition needs • Top with fresh or dried fruits, nuts or cinnamon to enjoy the healthy and nutritious breakfast.</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Diabetic Food</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Vim Dishwashing Bar</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>300 gm</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>৳ 40</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Origin: Bangladesh  With the power of 100 lemons Vim Bar helps to clean tough grease the fastest. It gives you a pleasant cleaning experience with its refreshing lemon fragrance. It removes stains easily. It is tough on stains, gentle on your hands. Just take a little bit of Vim Bar on your scrubber and clean your cooking vessles. So go ahead and enjoy the Vim liquid experience. Buy Now!</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Dishwashing Supplies</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Chaldal Basic Dishwashing Bar</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>300 gm</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>৳ 40</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Chaldal Basic Dishwashing Bar with the power of 100 lemons helps to clean tough grease the fastest. It gives you a pleasant cleaning experience with its refreshing lemon fragrance. It removes stains easily. It is tough on stains, and gentle on your hands. Just take a little bit of Chaldal Basic Dishwashing Bar on your scrubber and clean your cooking vessels. So go ahead and enjoy the Chaldal Basic Dishwashing Bar experience.</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Dishwashing Supplies</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Chaka Advanced Ball Soap</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>125 gm</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>৳ 24</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Chaka Ball Soap promises to remove tough dirt completely but with gentleness. This moisture proof poly packed ball soap is enriched with coco palm. Chaka Ball Soap generates more foam and cleans thoroughly.</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Laundry</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Chaldal Basic Synthetic Detergent Powder</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>1 kg</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>৳ 139</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Chaldal Basic Synthetic detergent powder, a one stop solution for all your laundry woes.While learning new skills and having fun, children often come home with a variety of stains on their clothes and more so often on their very important uniforms. While you’re happy that they have these new experiences, the stains leave you worried. To fight these difficult stains you end up putting in a lot extra effort and use additional stain removers such as bleach, lemon etc. It’s time you switch to Chaldal Basic Synthetic detergent powder and say goodbye to long laundry drills and juggling with different stain removal products each day. Chaldal Basic Synthetic detergent powder is one of the premium most detergent powders available in Bangladesh and has X-Tra Clean particles that combine the power of different stain removing products such as bleach. The superior technology of Chaldal Basic Synthetic detergent powder removes a variety of common tough stains like oil, ketchup, chocolate, curry stains, tea etc. With X-tra cleaning particles, it makes for the perfect wash. So go on and order your pack of Chaldal Basic Synthetic detergent powder right away and let you kids gets out there, clean, smart and prepared to take on the world and leave the stains to us.</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Laundry</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Harpic Liquid Toilet Cleaner Original</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>1 ltr</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>৳ 200</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Highlights: Removes tough stains Kills 99.9% of germs Leaves toilet sparkly Clean, hygienic and visibly neat Description: Harpic Toilet Cleaner Liquid 1L is a specialized all-in-one product, which is the ultimate one stop solution for all your toilet cleaning needs. Unlike ordinary toilet cleaners Harpic Power Plus has a thick liquid formula that clings to the toilet surface to clean deeply from the rim to the u-bend. Harpic toilet cleaner removes 99.9% of germs. Usage Information: Press Harpic Toilet Cleaner Liquid cap and twist to open, squeeze liquid around the toilet bowl and rim, leave for 5-10mins, finally scrub gently using a brush and flush. Safety Measure: Always use Harpic separately. Do not mix with other products. This product is not edible and harmful for eyes and skin. Wash with water immediately in case of contact with Skin or Eyes and consult a doctor. Read label for detail. About the Manufacturer: Harpic is a registered Trademark of Reckitt PLC headquartered in England. The first Harpic product was manufactured during 1920s in England. Harpic is the number 1 selling toilet cleaner in the world. Harpic products are made in Bangladesh by Reckitt (Bangladesh) PLC.</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Toilet Cleaners</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Harpic All-In-One Toilet &amp; Bathroom Cleaning Powder</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>400 gm</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>৳ 79</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Highlights • All-in-1 Toilet &amp; Bathroom Cleaning Expert • Powder cleaner for toilet &amp; bathroom cleaning on pan, commode, basin, shower, bathroom/toilet floor • Gives 3 times more cleaning than regular detergent as per lab test • Superior blue speckles formula to produce cleaning foam • Cleaning foam removes tough bathroom &amp; toilet stains • Kills 99.9% of germs • Malodor Control Technology prevents the bad odors of toilets Description Key Features: Harpic All-in-1 Toilet &amp; Bathroom Cleaning Powder is a specialized product, which is the ultimate one stop solution for all your toilet &amp; bathroom cleaning needs. Unlike regular powder cleaners Harpic toilet &amp; bathroom cleaning powder works on all kinds of Cement, Pit, Plastic and Ceramic Latrine. Harpic toilet cleaning powder comes with Malodor Control Technology which prevents the bad odors of toilets. Usage Information: Scatter the powder on toilet pan/commode, bathroom basin, shower area, floor and tiles. After applying on the surfaces, leave for 5mins and then scrub gently using a brush. Lastly, rinse with water to get sparkling clean and fresh smelling toilet/bathroom. Safety Measure: This product is not edible. Consult a doctor immediately if consumed. Read label for detail. About the Manufacturer: Harpic is a registered Trademark of Reckitt PLC headquartered in England. The first Harpic product was manufactured during 1920s in England. Harpic is the number 1 selling toilet cleaner in the world. Harpic products are made in Bangladesh by Reckitt (Bangladesh) PLC.</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Toilet Cleaners</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fresh Hand Towel (250X1 Ply)</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>৳ 100</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Origin: Bangladesh  Fresh Hand Towel is a type of disposable hand towel typically used for hand drying or general hygiene purposes. It is designed to be absorbent and convenient for various settings, such as bathrooms, kitchens, or other areas where hand towels are required.</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Napkins &amp; Paper Products</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fresh Toilet Tissue (Family Value Pack)</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>4 pcs</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>৳ 95</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Origin: Bangladesh  Fresh Toilet Tissue is a type of toilet paper typically used for personal hygiene in bathrooms. The "Family Value Pack" suggests that the packaging contains multiple rolls of toilet tissue, suitable for use by a family or for households with higher usage.</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Napkins &amp; Paper Products</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Godrej Good Knight Power Activ+ Refill</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>45 ml</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>৳ 110</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Origin: India GoodKnight Power Activ+ Liquid Vaporizer Refill:  Contents: 1 Unit of anti-mosquito liquid vaporizer cartridge  Complete protection - For your family from Malaria, Chikungunya and Dengue causing mosquitoes</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Pest Control</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>ACI Aerosol Insect Spray Jumbo</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>800 ml</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>৳ 620</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Spray the aerosol to remove the mosquitos or other insects. Shut the door and wait in outdoor 30 minutes. For best results use it before sunset.</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Pest Control</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Lizol Floor Cleaner Citrus Disinfectant Surface</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>1 ltr</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>৳ 259</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> •Disinfectant Surface Cleaner: Removes powerful stains &amp; kills 99.9% germs of all surfaces •Use directly or diluted for regular use, Suitable for cleaning all kinds of surfaces. •Leaves a Pleasant Fragrance. Maximum Shelf-Life 24 Months •Available Variants: Floral, Citrus, Jasmine, Lavender; Available Sizes: 500ml, 975ml, 1L &amp; 5L Description Exclusively formulated Lizol Disinfectant Surface Cleaner gives your home 10x better cleaning and germ kill than phenyl &amp; detergents. It kills virus and 99.9% germs, removes tough stains from surfaces &amp; leaves your home with pleasant fragrance. Lizol is safe to use on all surfaces like Ceramic, Marble Granite, Mosaic. Usage Information: Mix 1 cap Lizol with water (half bucket) for cleaning home &amp; bathroom surfaces. For kitchen, use Lizol directly without diluting with water. Safety Measure: Do not mix with other cleaner or acid. Wash your hands properly after using Lizol. This product is not edible and harmful for eyes and skin. Read label for detail. About the Manufacturer: Lizol &amp; Lysol are brands of Reckitt Benckiser Group PLC. Lizol products are manufactured and marketed in Bangladesh by Reckitt Benckiser Bangladesh Limited </t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Floor &amp; Glass Cleaners</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Lizol Disinfectant Surface &amp; Floor Cleaner Citrus</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>500 ml</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>৳ 139</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Highlights: Disinfectant Surface Cleaner: Removes powerful stains &amp; kills 99.9% germs of all surfaces Use directly or diluted for regular use, Suitable for cleaning all kinds of surfaces. Leaves a Pleasant Fragrance. Maximum Shelf Life Months 24 Available Variants: Floral, Citrus, Jasmine, Lavender; Available Sizes: 500ml, 975ml &amp; 5L Description: Exclusively formulated Lizol Disinfectant Surface Cleaner gives your home 10x better cleaning and germ kill than phenyl &amp; detergents. It kills virus and 99.9% germs, removes tough stains from surfaces &amp; leaves your home with pleasant fragrance. Lizol is safe to use on all surfaces like Ceramic, Marble Granite, Mosaic. Usage Information: Mix 1 cap Lizol with water (half bucket) for cleaning home &amp; bathroom surfaces. For kitchen, use Lizol directly without diluting with water. Safety Measure: Do not mix with other cleaner or acid. Wash your hands properly after using Lizol. This product is not edible and harmful for eyes and skin. Read label for detail. About the Manufacturer: Lizol &amp; Lysol are brands of Reckitt Benckiser Group PLC. Lizol products are manufactured and marketed in Bangladesh by Reckitt Benckiser Bangladesh Limited</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Floor &amp; Glass Cleaners</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Dish Washing Scrubbing Pad</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>৳ 25</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Origin: Bangladesh</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Cleaning Accessories</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Trash Bag Black - 20" x 30"</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>12 pcs</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>৳ 219</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Origin: Bangladesh  Type: Trash Bag / Poly Bag / Garbage Bag / Moyla Felar Bag / Polibag  Color: Black  Size: 20 inches Length X 30-inch Width (20""X30"")  Material: Premium Quality Polyethylene  Suitable for carrying household and any other badge/dust/trash  Suitable for carrying Hospital Garbage  Rectangle shape</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Cleaning Accessories</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Godrej Aer Power Pocket Bathroom Fragrance Sea Breeze</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>10 gm</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>৳ 70</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Origin: Bangladesh Say hello to the new Godrej aer power pocket! It’s a new range of bathroom fragrances that are available in 5 delightful variants.The new power gel technology ensures that your bathroom keeps smelling amazing for up to 30 days. How to use it? Just cut it, hang it, and enjoy the fragrance for up to 30 days. Delight your senses with our 5 fragrances-lavender.bloom, berry.rush, fresh.blossom, sea.breeze, and floral.delight. Each unit lasts up to 30 days, ensuring a fragrant bathroom every time you step into it.</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Air Fresheners</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Wave Air Freshener (Lavender)</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>300 ml</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>৳ 240</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Air Fresheners</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Trash Bag Black - 20" x 30"</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>12 pcs</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>৳ 219</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Origin: Bangladesh  Type: Trash Bag / Poly Bag / Garbage Bag / Moyla Felar Bag / Polibag  Color: Black  Size: 20 inches Length X 30-inch Width (20""X30"")  Material: Premium Quality Polyethylene  Suitable for carrying household and any other badge/dust/trash  Suitable for carrying Hospital Garbage  Rectangle shape</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Disposables &amp; Trash Bags</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Trash Bag Black (18" x 24")</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>10 pcs</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>৳ 179</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Origin: Bangladesh  Type: Trash Bag / Poly Bag / Garbage Bag / Moyla Felar Bag / Polibag Color: Black Size: 24 inches Length X 18-inch Width (18""X24"") Material: Premium Quality Polyethylene Suitable for carrying household and any other badge/dust/trash Suitable for carrying Hospital Garbage Rectangle shape </t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Disposables &amp; Trash Bags</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Award Shoe &amp; Boot Polish (Brown)</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>40 gm</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>৳ 90</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>A very effective international standard polish for keeping shoes clean and shiny. Which is available in 40 grm tin cans in black and brown color. German raw materials are used to make this product imported from China. Hydro de-aromatization oil is used as solvent in its preparation. Extremely eco-friendly, with a combination of Carnouk wax that gives a dazzling, shiny, and long lasting look that is better than any other good polish. Advantages / Qualities 1. Made from raw materials imported from Germany. 2. Use of hydro de-aromatization as solvent. 3. 100% eco-friendly and free of toxic and harmful chemicals. 4. Made from the world's finest quality carnauk wax. 5. Mud and water do not stick to shoes or sandals after use. 6. Brings dazzling and lasting radiance. Rules of use 1. First clean the shoe well. 2. Then apply the ink to the whole shoe with a soft cloth or brush. 3. Polish for a while with a fine brush. 4. Polish the shoe with a soft cotton cloth to make it brighter.</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Shoe Care</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>RFL Shoe Rack 4 Step (Red)</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>৳ 550</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Origin: Bangladesh Model: 86288.</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Shoe Care</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>RFL Wave Paper Basket (Pink)</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>৳ 100</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Origin: Bangladesh </t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Trash Bin &amp; Basket</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>RFL Modern Paper Basket (Blue)</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>৳ 100</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Origin: Bangladesh </t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Trash Bin &amp; Basket</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Fresh Hand Towel (250X1 Ply)</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>৳ 100</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Origin: Bangladesh  Fresh Hand Towel is a type of disposable hand towel typically used for hand drying or general hygiene purposes. It is designed to be absorbent and convenient for various settings, such as bathrooms, kitchens, or other areas where hand towels are required.</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Tissue &amp; Wipes</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Fresh Toilet Tissue (Family Value Pack)</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>4 pcs</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>৳ 95</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Origin: Bangladesh  Fresh Toilet Tissue is a type of toilet paper typically used for personal hygiene in bathrooms. The "Family Value Pack" suggests that the packaging contains multiple rolls of toilet tissue, suitable for use by a family or for households with higher usage.</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Tissue &amp; Wipes</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Revive Active Sun Block Powder</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>200 gm</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>৳ 90</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Revive Perfect Skin Talcum Powder and Moisturizing lotion has a unique formulation with active Sun Block which protects skin from the sun and gives you a wonderful feeling even in outdoors. The specialized formulation retains your skin's natural fairness and keeps it perfect.Ingredients: Sterilized Talc, Zinc Stearate, Zinc Oxide, Natural Fragrance of Jasmine Flower.</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Talcom Powder</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Cute French Perfumed Talc Powder</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>225 gm</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>৳ 100</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Origin: Bangladesh Cute French perfumed talc powder is a deodorizing, refreshing powder that will keep you delightful in hot summer days. • Talc • Magnesium carbonate • Sandalwood oil • Perfume • Magnesium stearate</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Talcom Powder</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Godrej Expert Easy 5 Minute Shampoo Based Hair Color (Black)</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>10 gm</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>৳ 30</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Origin: Bangladesh Godrej Expert 5 minute Shampoo Hair Color (tural Black)   * Enriched with the goodness of amla and shikakai  * No ammonia formula with 100 percent grey coverage  * Quick and convenient way of hair colouring – no need of using brush or bowl, gloves included inside  * Simply apply on dry hair – leave for 5 minutes – wash off  * Available in 2 other variants – tural brown and burgundy  * Contents: 1 unit of Godrej Expert 5 minute shampoo hair colour sachet (10ml) and hand gloves</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Hair Color</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Godrej Expert Rich Creme Hair Colour Burgundy</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>20 gm</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>৳ 50</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Origin: India * Godrej Expert Rich Crème is enriched with the goodness of aloe vera which keeps your hair incredibly soft and shiny. The goodness of its ingredients lends you that extra ‘care’ only an expert can give.  * The presence of ammonia in your hair colour can be harmful for your hair. Godrej Expert Rich Creme is an ammonia-free hair colour that keeps your hair strong, is safe to use and can lend beautiful, long lasting colour to your tresses.  * For those who love creme hair colour. Now do applications including root touch ups in the comfort of your home with just a single pack. Getting long-lasting beautiful colour has become simpler!  * The pack has one unit of creme (20g) and one unit of developer (20 ml).</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Hair Color</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Lomba Lebu (Long Lemon)</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>4 pcs</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>৳ 35</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Weight: 300-320 gm  Locally Sourced.Locally Sourced.From treating throat infections to aiding digestion, Lemons are a great natural remedy. The distinctive sour taste of lemon juice is used to flavour a variety of food and beverages and the rind (zest) can also be used in cooking and baking. Lemons can be stored at room temperature for up to a week and in a fridge for up to a month. Tip: microwave for 10 seconds and roll on counter top applying hard pressure prior to juicing.</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Keto Food</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Aarong Dairy Sour Curd</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>500 gm</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>৳ 110+৳3</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Brac Dairy &amp; Food Project  1. Boosts Immunity Level 2. Prevents Cold 3. Better Digestion 4. Strengthen The Bones</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Keto Food</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>ACI Savlon Liquid Antiseptic</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>1000 ml</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>৳ 280</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Savlon Liquid Antiseptic is used in first-aid to clean wounds and prevent infection. It contains two medicine is available called chlorhexidine and cetrimide which are both antiseptics that kill germs. Savlon can be used on minor cuts, abrasion, stings and insect bites. It disinfect, prevents infection and promotes the natural healing process if the skin. It can also be used in the bathing.</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Antiseptics</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>ACI Savlon Liquid Antiseptic</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>500 ml</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>৳ 175</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Savlon Liquid Antiseptic is used in first-aid to clean wounds and prevent infection. It contains two medicine is available called chlorhexidine and cetrimide which are both antiseptics that kill germs. Savlon can be used on minor cuts, abrasion, stings and insect bites. It disinfect, prevents infection and promotes the natural healing process if the skin. It can also be used in the bathing.</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Antiseptics</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Dettol Handwash Skincare Liquid Refill</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>170 ml</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>৳ 65</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Highlights:
+Dettol Skincare Liquid Handwash 170 ml Refill.
+Protects from 100 illness causing germs. Tested under lab condition. 
+Daily use of Dettol keeps your hand clean and germ free. 
+Use Dettol Handwash for everyday protection.
+Recommended by Bangladesh Private Medical Practitioners Association. 
+Made with Rose Extract.
+Description:
+Dettol Handwash provides everyday protection and protects from 100 illness causing germs as per standard testing protocol. Dettol Skincare handwash give you a rose fragrance. Daily use of Dettol Handwash keeps your hand clean and germ free. Dettol Handwash Liquid is recommended by Bangladesh Private Medical Practitioners Association. 
+Usage direction: Cut the pack along with the given line and pour the of Dettol Liquid Handwash into a dispenser. Press nozzle to get some handwash liquid on hand. Rub hands together ensuring total coverage with lather. Rinse well with water and dry off. 
+Safety Direction: for external use only. Keep out of reach of children unless under adult supervision. Avoid contact with eyes. In case of contact with eyes rinse immediately with of water. If persistent irritation occurs, get medical attention. Not to be used on children under 3 years of age. Store in cool and dry place. 
+About the manufacturer: Dettol Skincare Handwash Refill is made in Bangladesh by Reckitt Benckiser Bangladesh Ltd. Dettol is a registered Trademark of Reckitt Benckiser PLC headquartered in England. The first Dettol product was manufactured in the year 1932 in England. Dettol is now the world’s most trusted germ kill brand.</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Handwash &amp; Handrub</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Dettol Handwash Re-Energize Liquid Pump</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>200 ml</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>৳ 110</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Highlights: Dettol Re-energize Liquid Handwash 200 ml Pump. Protects from 100 illness causing germs. Tested under lab condition. Daily use of Dettol keeps your hand clean and germ free. Use Dettol Handwash for everyday protection. Recommended by Bangladesh Private Medical Practitioners Association. Made with Orange extracts. Description: Dettol Handwash provides everyday protection and protects from 100 illness causing germs as per standard testing protocol. Dettol Re-energize handwash give you an Orange fragrance. Daily use of Dettol Handwash keeps your hand clean and germ free. Dettol Handwash Liquid is recommended by Bangladesh Private Medical Practitioners Association. Usage direction: Press nozzle gently to get a small amount of Dettol Liquid Handwash on wet hands. Rub hands together ensuring total coverage with lather. Rinse well with water and dry off. Safety Direction: for external use only. Keep out of reach of children unless under adult supervision. Avoid contact with eyes. In case of contact with eyes rinse immediately with of water. If persistent irritation occurs, get medical attention. Not to be used on children under 3 years of age. Store in cool and dry place. About the manufacturer: Dettol Re-energize Handwash pump is made in Bangladesh by Reckitt Benckiser Bangladesh Ltd. Dettol is a registered Trademark of Reckitt Benckiser PLC headquartered in England. The first Dettol product was manufactured in the year 1932 in England. Dettol is now the world’s most trusted germ kill brand. </t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Handwash &amp; Handrub</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Nutri+ Ener-G Fortified Tasty Saline Lemon Flavored</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>20 pcs</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>৳ 140</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1 Box = 20 pcs Ener-G is the first fortified tasty saline in Bangladesh that contains 10% RDI in every serving. This fortified tasty saline comes in a 9 gm pack. Ingredients: Sucrose, Dextrose anhydrous, Citric Acid anhydrous (E330), Tri Sodium Citrate dehydrated (E331), Sodium Chloride, Potassium Chloride, Aspartame (E951), Tri Calcium Phosphate (E341), Clouding Agent and Permitted Food Grade Lemon Flavor.</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Herbal &amp; Digestive Aids</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Farmer's Gold Psyllium Husk (Isubgul Vushi)</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>100 gm</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>৳ 280</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Farmer's Gold Psyllium Husk, known as "Isubgul Vushi" in some regions, is a natural dietary fiber supplement derived from the seeds of the Plantago ovata plant. This 100 gm package of psyllium husk is a premium source of soluble fiber, offering a range of potential health benefits. It is a versatile and convenient way to increase your daily fiber intake and support digestive health.</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Herbal &amp; Digestive Aids</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Standard Horlicks Health And Nutrition Drink Jar</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>500 gm</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>৳ 420</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>If you are concerned about your baby’s prosperity, buy horlicks jar from chaldal which contains a wide range of vitamins and minerals essential for enrichment. Origin: Bangladesh.</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Food Supplements</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Junior Horlicks Health And Nutrition Drink Container Stage-2</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>500 gm</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>৳ 460</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Junior Horlicks provides nutrition for the junior. It has DHA which, along with other vital nutrients, helps in junior’s brain development and function. With 20 Vital Micronutrients, Junior Horlicks aids in optimal height, weight gain and brain development and function. Give your champ Junior Horlicks today for the “Right Start for Right Growth”. Origin: Bangladesh.</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Food Supplements</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Sepnil Face Mask 1 Box</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>50 pcs</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>৳ 320</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>From the house of SQUARE Sepnil’s protection is now available in Sepnil Face Mask. The 3 layerswith medical grade face mask ensures 99% protection from germs and bacteria. It is ISO certifiedand also approved by International Quality Control Company (SGS) and Director General Drug Administration (DGDA). Use Sepnil Face Mask for comfortable and breathable protection throughout the day.</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Face Masks &amp; Safety</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Sepnil Face Mask (Black Colour)</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>50 pcs</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>৳ 320</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Sepnil Face Mask Black Colour is developed for fashion statement, with comfortable, adjustable and the 3 layered medical grade face mask ensures 99% protection from all sorts of bacterial. It is ISO certified and also tested by SGS and approved by Director General Drug Administration (DGDA) of Bangladesh. Sepnil Face Mask Black Colour is disposable &amp; medical protective. Sepnil Face Mask Black Colour is the most comfortable and breathable protection throughout the day like our regular Sepnil Face Mask Blue Colour.</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Face Masks &amp; Safety</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>I1 Panther Doted Condom</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>3 pcs</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>৳ 25</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Made in Bangladesh</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Family Planning</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>M1 Sensation Classic Dotted Condoms</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>3 pcs</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>৳ 40</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Barcode : 8941193102015 Made in Bangladesh  Length: 180 mm Width : 52mm ± 2 mm Thickness :0.055mm ± 0.060 mm</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Family Planning</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Colgate Plax Herbal Salt Mouth Wash</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>500 ml</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>৳ 1,195</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Origin: Thailand Manufacturer: Colgate-Palmolive Colgate Plax Herbal salt Mouth Wash contains no alcohol. So, it has no burning taste. It kills 99.9% germs and protects from bad breath 24/7. It provides 10 times better cooling than brushing alone. This product is halal certified. Contains salt and herbal essence for better gum health, and helps prevent cavities.</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Mouthwashes, Inhaler &amp; Balm</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Zandu Balm Ultra Power</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>8 ml</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>৳ 169</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Origin: India Manufacturer: Emami Ltd. Zandu Balm Ultra Power is a safe &amp; effective remedy for severe pain and aches. It provides fast and long-lasting relief from:- • Strong Headache • Strong Backache • Strong Knee Pain • Strong Joint Pain • Strong Neck &amp; Shoulder Pain • Sprain • Muscle Pain • Inflammation • Cold</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Mouthwashes, Inhaler &amp; Balm</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Aspire Adult Diaper Belt M 76- 116 cm</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>8 pcs</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>৳ 768</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Origin: Bangladesh With wetness indicator Hydrophobic leg cuffs to prevent leakage Size: M 76- 116 cm Belt system Quantity: 8 Pcs  Aspire Belt system Adult Daiper gives your parents a peaceful night sleep so that he wakes up smiling in the morning.The Extra-Dry core in this Daiper can absorb up to SIX wetting.This Product is s must own for your love one. </t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Adult Diapers</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Safe-Accu Blood Glucose Monitor Device Kit</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>৳ 599</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t> Blood Sugar Test Kit: Package upgrade, the blood glucose kit including-Sinocare blood sugar monitor Safe-Accu &amp; Strips x 10 &amp; Lancets x 10 &amp; Pain free lancing device &amp; Case &amp; User manual. A set of equipment to meet all your needs when taking a diabetes test.   High Cost Performance: affordable, low price, full-featured, suitable for long-term use in blood testing.   Precise &amp; Easy to Use: the diabetes test kit uses Code free test strips, which requires only 10 seconds of test time and 0.6 micro liters of blood sample volume. The blood sugar test strip has advanced technology and stability. Results given in the UK standard measurement of mmol/L when testing blood sugar.   Convenient: This glucose blood monitor has the advantages of exquisite and lightweight. Easy to carry anywhere. Allows you to easily take a sugar blood test while you are on a business trip or traveling.   Large Memory Capacity: The blood sugar monitor's memory capacity reaches 200, which can display the data average of 7 days, 14 days and 28 days. Easy access to historical data at any time.  Feature: Test range: 20-600mg/dL (1.1-33.3mmol/L) Test time: 10s Blood volume: 0.6μl HCT: 30-60% Color: White  Rationale: The expected values for normal fasting blood glucose concentration are between 70 mg/dL (3.9 mmol/L) and 100 mg/dL (5.6 mmol/L). When fasting blood glucose is between 100 to 125 mg/dL (5.6 to 6.9 mmol/L) changes in lifestyle and monitoring glycemia are recommended. If fasting blood glucose is 126 mg/dL (7 mmol/L) or higher on two separate tests, diabetes is diagnosed. An individual with low fasting blood glucose concentration (hypoglycemia) – below 70 mg/dL (3.9 mmol/L) – will experience dizziness, sweating, palpitations, blurred vision and other symptoms that have to be monitored. Increased fasting blood glucose concentration (hyperglycemia) is an indicator of a higher risk to diabetes  Sir Disinfectant Cleaner 750ml : SIR antibacterial disinfectant cleaner kills 99.9% of bacteria. It is suitable to clean house-hold surfaces, food areas. Electronic devices, mobile phones, TV, and all surfaces. Origin: Turkey. Warning Do not use it for hand, face, body, and food cleaning. Keep away from children. Rinse your hands with water after use.</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Medical Devices</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Hot Water Bottle With Flees Cover (Assorted Color)</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>2000 ml</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>৳ 229</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Medical Devices</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Meril Baby Shampoo</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>110 ml</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>৳ 200</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Origin: Bangladesh</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Baby Skincare</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Meril Baby Powder</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>100 gm</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>৳ 130</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Origin: Bangladesh</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Baby Skincare</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>NeoCare Baby Wipes</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>120 pcs</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>৳ 235</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Origin: Bangladesh PH balanced, microbiologically tested baby wipes. Free from paraben, silicone and alcohol. ingredients: Pure water, propylene glycol, benzalconium chloride, iodopropynyl butylcarbomarate, fragrance. Quantity: 120 Pcs</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Wipes</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>ACI Savlon Baby Wipes (Antibacterial)</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>80 pcs</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>৳ 230</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Origin: Bangladesh Gentle, alcohol-free formula. Kills 99.9% of bacteria Pre-moistured with water Light-scented Ingredients: Leaf juice, water, Disodium EDTA, glycerin, citric acid, benzalkonium chloride, sodium benzoate, polysorbate 20, aloe barbadensis, Vitamin E, Fragrance. Quantity: 80 Pcs. </t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Wipes</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Meril Baby Gel Orange Toothpaste</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>45 gm</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>৳ 100</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Origin: Bangladesh</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Baby Oral Care</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Pepsodent Toothpaste Kids Strawbery</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>45 gm</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>৳ 85</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Origin: Bangladesh  Pepsodent Toothpaste Kids Strawbery 45 gm</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Baby Oral Care</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>NeoCare Baby Wipes</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>120 pcs</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>৳ 235</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Origin: Bangladesh PH balanced, microbiologically tested baby wipes. Free from paraben, silicone and alcohol. ingredients: Pure water, propylene glycol, benzalconium chloride, iodopropynyl butylcarbomarate, fragrance. Quantity: 120 Pcs</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Newborn Essentials</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>ACI Savlon Baby Wipes (Antibacterial)</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>80 pcs</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>৳ 230</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Origin: Bangladesh Gentle, alcohol-free formula. Kills 99.9% of bacteria Pre-moistured with water Light-scented Ingredients: Leaf juice, water, Disodium EDTA, glycerin, citric acid, benzalkonium chloride, sodium benzoate, polysorbate 20, aloe barbadensis, Vitamin E, Fragrance. Quantity: 80 Pcs. </t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Newborn Essentials</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Lion Milk Powder Container (Pink)</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>৳ 240</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Origin: Thailand</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Baby Accessories</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Pur Going Out Cup (Green) 250 ml</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>৳ 529</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Origin: Thailand</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Baby Accessories</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Twinkle Baby Spoon Feeder</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>160 ml</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>৳ 200</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Feeders</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Twinkle Tumbler</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>180 ml</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>৳ 140</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Child-friendly Design. Sized just right for your little one, this Twinkle Straw tumbler comes with other child-friendly features too. It comes with a detachable straw for easy sipping. The straw is built into the lid and covered with a yellow cap when not being used.</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Feeders</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Fresh Hand Towel (250X1 Ply)</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>৳ 100</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Origin: Bangladesh  Fresh Hand Towel is a type of disposable hand towel typically used for hand drying or general hygiene purposes. It is designed to be absorbent and convenient for various settings, such as bathrooms, kitchens, or other areas where hand towels are required.</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Kitchen Accessories</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Fresh Paper Napkins 13" Perfumed (100X1 Ply)</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>৳ 70</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Origin: Bangladesh  Fresh Paper Napkins, also known as scented paper napkins, are a type of disposable napkin that typically comes. They are single-ply napkins, meaning they have one layer of paper.</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Kitchen Accessories</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Pureit Pedestal Stand</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>৳ 230</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Origin: Bangladesh</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Kitchen Appliances</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Pureit Classic Germ Kill Kit</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>1500 ltr</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>৳ 800</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Origin: Bangladesh  Pureit is a revolutionary innovation by Unilever to provide solution to the need of safe drinking water. It is world’s one of the most advanced in-home water purifier and first of its kind. Infact, it is world’s largest selling water purifier. Pureit uses advanced “4-Step GermKill Technology” to purify water. First, water passes through micro fiber mesh, which removes visible dirt and other material in the water. Second, it passes through the activated carbon trap, which stops all harmful parasites and other objects not visible to naked eye. At the third step, it passes through the germ kill processor that kills all the harmful virus and bacteria. Finally, the water passes through the polisher that removes any chlorine in the water and other unwanted taste or odor causing elements. </t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Kitchen Appliances</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Stainless Steel Rice Spoon</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>৳ 179</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Origin: Bangladesh</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Tools &amp; Hardware</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Stainless Steel Windbreak Clip</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>20 pcs</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>৳ 139</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Origin: Bangladesh</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Tools &amp; Hardware</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>RFL Magic Clean Bucket With Mop (Green)</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>৳ 2,000</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Origin: Bangladesh </t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Basket &amp; Bucket</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Npoly Printed Paper Basket 10 x 10 inch</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>৳ 150</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Basket &amp; Bucket</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Npoly Printed Round Food Box Set (Blue)</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>3 pcs</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>৳ 170</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Box &amp; Container</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Npoly Round Food Box</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>3 pcs</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>৳ 255</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>National Fittings &amp; Accessories, LTD.(NPOLY)</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Box &amp; Container</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>RFL TEL Flower Tub With Tray (Rose Wood) 14 inch</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>৳ 167</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Origin: Bangladesh. Size: 14 inch (14 ltr)</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Gardening</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>RFL TEL Modern Flower Tub With Tray (Rose Wood) 8 inch</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>৳ 79</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Origin: Bangladesh. Size: 8 inch (3 ltr)</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Gardening</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Npoly Round Cloth Hanger (Red)</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>৳ 200</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>National Fittings &amp; Accessories,LTD (NPOLY)</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Rack &amp; Organizer</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>RFL English Dish Rack Mini Red</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>৳ 350</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Origin: Bangladesh </t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Rack &amp; Organizer</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Areca Leaf Square Bowl</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>6 pcs</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>৳ 105</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>The wonderful collection of Areca leaf plates(সুপারি পাতার প্লেট) from Bright Areca is made out of natural shredded leaves from the areca nut tree. They are 100% Natural, Biodegradable and Compostable. The 6 Inch Round areca nut Leaf Plates are great to serve fruit salads, pastas, few slices of pizza, terrines, bread slices. Color: Natural 100% Biodegradable and Compostable 100% Natural and Organic Does not contains any glue or chemicals Microwave safe, liquid and heat safe</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Disposables</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Areca Leaf Round Plate Set</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>6 pcs</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>৳ 80</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>The wonderful collection of Areca leaf plates(সুপারি পাতার প্লেট) from Bright Areca is made out of natural shredded leaves from the areca nut tree. They are 100% Natural, Biodegradable and Compostable. The 6 Inch Round areca nut Leaf Plates are great to serve fruit salads, pastas, few slices of pizza, terrines, bread slices. Color: Natural 100% Biodegradable and Compostable 100% Natural and Organic Does not contains any glue or chemicals Microwave safe, liquid and heat safe</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Disposables</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Matador i-teen Aroma Ball Pen Black Ink</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>6 pcs</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>৳ 73</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Country of Origin: Bangladesh</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>School Supplies</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Deli Drafting Set (Compass)</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>৳ 270</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Model: EG30404</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>School Supplies</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Whiskas Adult Cat Food Tuna</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>80 gm</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>৳ 159</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>WHISKAS cat food is complete and balanced, specially designed to fulfill your cat’s needs at every life stage. At the age of 12 months, your kitten turns adult, and requires a different nutritional needs. This change in nutritional needs will change again when they turn 7 Nutritional facts/Ingredients :Corn gluten meal, Flavour, Food coloring, Lodised Salt, Methionine, Minerals, Ocean Fish, Poultry and poultry by products, Preservatives, Soy bean product (Full fat soy bean, soy bean meal), Taurine, Vegetables oil (palm sterine, soy oil), Vitamins, Wheat Flour, Wholegrain Cereal (Corn, Wheat)</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Cat Food</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>SmartHeart Adult Cat Canned Food Pilchard in Prawn Jelly</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>400 gm</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>৳ 289</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Protein – To maintain good muscle mass Fat – To maintain healthy skin and a shiny coat Minerals – Strengthen bones and teeth Nutritional composition  Crude Protein – min 10% Crude Fat – min 2% Crude Fibre – max 1% Moisture – max 84% Suitable for adult cat (1+year)</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Cat Food</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Haisenpet Extreme Bentonite Cat Litter Coffee Flavour</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>5 ltr</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>৳ 449</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Haisenpet Cat Litter is Most Premium Bentonite Cat Litter in Bangladesh. Its Super Clumping &amp; Super Absorption Capacity Makes Haisenpet Cat Litter Better Than Any Other Cat Litter Available in Bangladesh. Haisenpet Cat Litter Has More Silica Beads than Other Litters, Thats Why Absorption Capacity is Better Than Other Litters Available In Bangladesh. Haisenpet Cat Litter is Made of High Quality Natural Bentonite, That's Why Clumping Capacity is also Better Than Other Litters. Super Odor Control Formula Removes all Bad Odor &amp; Release Strong Perfume to Keep Environment Fresh &amp; Fragnant. Anti Bacterial Formula of Haisenpet Cat Litter Controls Bacteria in Your Litter Box and Keeps Your Kittys Fresh, Healthy &amp; Free From Disease. Unlike Other Cat Litters, Haisenpet Cat Litter is Dust Free, Which Control Wastage, Helps Running Same Litter for Longer Time. As Haisenpet Cat Litter is Dust Free, it Doesn't Stick to Your Cat's Furs &amp; Doesn't Make Your Floor Dirty. Haisenpet Cat Litter Uses Less Amount of Litter Granules to Make Clumps, That's why Haisenpet Cat Litter Lasts Longer Than Other Litters &amp; Economical to Use. Haisenpet Cat Litter Clumps are Stronger Than Other Litter Clumps, That's Why It Doesn't Make Your Floor Dirty. Morever, Haisenpet Cat is 100% Natural &amp; 100% Safe for Your Kittys!! ITS THE BEST LITTER IN BANGLADESH.</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Cat Litters</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Haisenpet Extreme Bentonite Cat Litter Lemon Flavour</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>5 ltr</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>৳ 449</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Haisenpet Cat Litter is Most Premium Bentonite Cat Litter in Bangladesh. Its Super Clumping &amp; Super Absorption Capacity Makes Haisenpet Cat Litter Better Than Any Other Cat Litter Available in Bangladesh. Haisenpet Cat Litter Has More Silica Beads than Other Litters, Thats Why Absorption Capacity is Better Than Other Litters Available In Bangladesh. Haisenpet Cat Litter is Made of High Quality Natural Bentonite, That's Why Clumping Capacity is also Better Than Other Litters. Super Odor Control Formula Removes all Bad Odor &amp; Release Strong Perfume to Keep Environment Fresh &amp; Fragnant. Anti Bacterial Formula of Haisenpet Cat Litter Controls Bacteria in Your Litter Box and Keeps Your Kittys Fresh, Healthy &amp; Free From Disease. Unlike Other Cat Litters, Haisenpet Cat Litter is Dust Free, Which Control Wastage, Helps Running Same Litter for Longer Time. As Haisenpet Cat Litter is Dust Free, it Doesn't Stick to Your Cat's Furs &amp; Doesn't Make Your Floor Dirty. Haisenpet Cat Litter Uses Less Amount of Litter Granules to Make Clumps, That's why Haisenpet Cat Litter Lasts Longer Than Other Litters &amp; Economical to Use. Haisenpet Cat Litter Clumps are Stronger Than Other Litter Clumps, That's Why It Doesn't Make Your Floor Dirty. Morever, Haisenpet Cat is 100% Natural &amp; 100% Safe for Your Kittys!! ITS THE BEST LITTER IN BANGLADESH.</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Cat Litters</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>SmartHeart Kitten Food Chicken, Fish, Milk &amp; Egg</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>450 gm</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>৳ 429</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>SmartHeart kitten food is formulated to meet kitten’s requirements using the best quality ingredients and supplemented with fish oil and Lecithin to help enhance brain and nervous system function and promote heart health. Proper Structure Development – Protein from egg and milk for development of muscle and proper body structure Enhance Brain Development – DHA &amp; Choline for enhanced brain and nervous system Healthy Heart – Omega-3 fatty acids from fish oil for healthy heart Triple DHA Enhancement – for improve cat’s memory, alertness and intelligence Vision Nourishing – Taurine supplement for eye sigh nourishing Healthy Skin and Coat – Balanced Vitamin E, Biotin, Zinc and Omega 3 &amp; 6 Strong Bones and Teeth – High in Calcium and Phosphorus Antioxidants, Brewers Dried Yeast, Broken Rice, Chicken Fat, Corn, Corn gluten meal, Egg powder, Fish Meal, Fish Oil, Food coloring, Lecithin, Milk Replacer, Poultry Meal, Soybean Meal, Taurine, Vitamins and Minerals</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Kitten Food</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Drools Kitten Food Ocean Fish</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>400 gm</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>৳ 579</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Drools kitten ocean fish food is a complete and balanced feed for cats. Cats are fussy &amp; choosy eaters and their nutritional requirements also very peculiar. It is formulated with real delicious high quality ocean fish, Drools ocean fish cat food delivers optimum protein and energy along with essential nutrients to keep your cat healthy and active.  It has omega 6 and 3 fatty acids help support skin &amp;coat and immunity. Supplemented with prebiotics &amp; probiotics, this cat food protects from hair ball formation &amp; maintains digestive tract health.  Nutritional facts/Ingredients :Copper, Corn gluten meal, Eggs, Iron, Manganese, Organic Minerals, Prebiotic, Probiotics, Real Mackerel, Real Sardine, Selenium, Soya Refined oil, Taurine, Vitamins, Wheat Flour, Whole Grain Cereals, Zinc</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Kitten Food</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>SmartHeart Dog Food Adult Chicken and Liver Can</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>400 gm</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>৳ 400</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>SmartHeart Adult Dog Dry Food is tailored-made formulations of dog food which embraces the daily needs of adult dogs in a variety of flavours. A level of care and attention is given along the manufacturing process from ingredients quality control to final delivery to customers. We assure the quality and value of SmartHeart Adult Dog Dry Food across the ranges.  Nutritional facts/Ingredients :"Made From Real Meat – A great taste for your dogs – Complete and balanced nutrition for your dogs"</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Dog Food</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>SmartHeart Adult Dog Food Roast Beef Flavor</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>3 kg</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>৳ 1,899</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SmartHeart Adult Dog Dry Food is tailored-made formulations of dog food which embraces the daily needs of adult dogs in a variety of flavours. A level of care and attention is given along the manufacturing process from ingredients quality control to final delivery to customers. We assure the quality and value of SmartHeart Adult Dog Dry Food across the ranges.  Ingredients: Corn, poultry meal, rice, soybean meal, chicken oil, full fat soybean, brewer’s dried yeast, dried whole egg, lecithin, fish oil, iodized salt, vitamins and minerals, antioxidants and food colouring </t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Dog Food</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Versele Laga Perfume Him</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>150 ml</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>৳ 939</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>উৎপাদনকারী দেশঃ বেলজিয়াম উপকরণঃ অ্যাকোয়া, পারফুম, সিআই 19140, সিআই 42090, সিআই 15985, সোডিয়াম সালফেট, বেনজিল স্যালিসিলেট, বাটিলফেনিল মেথালপ্রিয়োনাল, সিট্রাল, সিট্রোনেলল, কাউমারিন, জেরানিয়ল, লিমনেন, লিনালুল।  পরিমাণ: ১৫০ মিলি</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Grooming &amp; Cleaning</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Petme Oral +Plus Gel</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>30 gm</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>৳ 499</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Origin: Thailand Nutritional and energy supplement for cats and dogs. Omega 3, 6 and vitamin E promote a healthy and shiny coat Probiotic promotes healthy guts Prevents taurine deficiency in cats Quantity:30 gm   উৎপাদনকারী দেশঃ থাইল্যান্ড বেড়াল ও কুকুরের জন্য পুষ্টিকর পরিপূরক খাদ্য। এর ওমেগা ৩, ৬ ও ভিটামিন-ই ত্বক ও পশমের সুস্বাস্থ্য বজায় রাখে। বেড়ালের শরীরে টরিনের ঘাটতি পূরণ করে। এর প্রোবায়োটিক পরিপাকতন্ত্রকে সুস্থ রাখে। পরিমাণঃ ৩০ গ্রাম </t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Grooming &amp; Cleaning</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Gold Wings Premium Parrots Mix</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>1 kg</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>৳ 725</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>(For Medium &amp; Large Parrots)</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Bird &amp; Other Pet Food</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Gold Wings Premium Parakeets Mix</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>1 kg</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>৳ 449</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>(For Lovebird &amp; Cockatiel)</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Bird &amp; Other Pet Food</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Taiyo Marine Fish Food</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>25 gm</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>৳ 129</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Taiyo Marine Flake Fish Food 25gm is a premium fish feed that provides complete and balanced nutrition for marine aquarium fish. This high-quality feed is made from a blend of carefully selected ingredients, including fish meal, krill, squid meal, wheat flour, and other essential vitamins and minerals. The food is formulated to promote healthy growth, strong immune systems, and vibrant coloration in marine fish. The 25gm package size is ideal for aquarium owners with small to medium-sized tanks, and the flakes are easy to digest and suitable for fish of all sizes.</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Aquarium Fish Food</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Taiyo Colour Flake Fish Food</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>25 gm</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>৳ 129</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Taiyo Colour Flake Fish Food 25gm is a premium fish feed that is specially formulated to enhance the coloration of aquarium fish. This high-quality feed is made from a blend of carefully selected ingredients, including fish meal, krill, wheat flour, spirulina, and other essential vitamins and minerals. The food is formulated to promote healthy growth, strong immune systems, and vibrant coloration in fish. The 25gm package size is ideal for aquarium owners with small to medium-sized tanks, and the flakes are easy to digest and suitable for fish of all sizes.</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Aquarium Fish Food</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>